--- a/tests/frameworks/framework_cervicalcancer.xlsx
+++ b/tests/frameworks/framework_cervicalcancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8390F13C-E450-374B-8EF3-ECAE60984B9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B651ECB-8442-B44B-9AF4-504DFDD43523}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Code Name</t>
   </si>
@@ -1018,9 +1018,6 @@
     <t>initiate</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
     <t>Currently treated</t>
   </si>
   <si>
@@ -1039,9 +1036,6 @@
     <t>probability</t>
   </si>
   <si>
-    <t>Loss-to-follow-up rate</t>
-  </si>
-  <si>
     <t>all_people</t>
   </si>
   <si>
@@ -1075,18 +1069,12 @@
     <t>Initiation rate</t>
   </si>
   <si>
-    <t>num_loss</t>
-  </si>
-  <si>
     <t>Annual number of new diagnoses</t>
   </si>
   <si>
     <t>Annual number newly initiated onto treatment</t>
   </si>
   <si>
-    <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
     <t>scr</t>
   </si>
   <si>
@@ -1126,9 +1114,6 @@
     <t>num_initiate/max(dx,num_initiate)</t>
   </si>
   <si>
-    <t>num_loss/max(tx,num_loss)</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -1195,9 +1180,6 @@
     <t>dead</t>
   </si>
   <si>
-    <t>Dead</t>
-  </si>
-  <si>
     <t>death</t>
   </si>
   <si>
@@ -1286,6 +1268,21 @@
   </si>
   <si>
     <t>Framework for a 4-stage cervical cancer cascade model, with vital dynamics and new cases</t>
+  </si>
+  <si>
+    <t>dead_cc</t>
+  </si>
+  <si>
+    <t>Dead (cervical cancer)</t>
+  </si>
+  <si>
+    <t>Dead (other)</t>
+  </si>
+  <si>
+    <t>death_cc</t>
+  </si>
+  <si>
+    <t>Mortality rate for those with untreated cervical cancer</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1395,81 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2021,81 +2092,81 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2119,18 +2190,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2177,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2206,15 +2277,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -2225,10 +2296,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2254,10 +2325,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2299,10 +2370,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -2313,24 +2384,45 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2341,17 +2433,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H3:H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
@@ -2381,22 +2473,26 @@
         <f>Compartments!$A$8</f>
         <v>dead</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="str">
+        <f>Compartments!$A$9</f>
+        <v>dead_cc</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>source</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>sus</v>
@@ -2404,16 +2500,16 @@
       <c r="B3" s="3"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>undx</v>
@@ -2422,15 +2518,18 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>scr</v>
@@ -2440,14 +2539,17 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>dx</v>
@@ -2461,10 +2563,13 @@
         <v>19</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Compartments!$A$7</f>
         <v>tx</v>
@@ -2473,84 +2578,118 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Compartments!$A$8</f>
         <v>dead</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="str">
+        <f>Compartments!$A$9</f>
+        <v>dead_cc</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="7">
       <formula>LEN(TRIM(H7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G7">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="21">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="20">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G7">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="19">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="18">
       <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="17">
       <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="8">
       <formula>LEN(TRIM(H7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="14">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="13">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="12">
       <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="11">
       <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="10">
       <formula>LEN(TRIM(H6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="9">
       <formula>LEN(TRIM(H6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(I4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(I4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(I5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(I5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(I6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,24 +2728,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2615,61 +2754,61 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2678,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2694,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2736,21 +2875,21 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7">
@@ -2761,18 +2900,18 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="7">
@@ -2780,21 +2919,21 @@
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -2804,22 +2943,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -2831,18 +2970,18 @@
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -2852,22 +2991,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2875,7 +3014,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -2884,13 +3023,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2900,22 +3039,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2927,18 +3066,18 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -2948,22 +3087,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2">
@@ -2975,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,10 +3122,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2">
@@ -2996,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>6</v>
@@ -3005,77 +3144,65 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.05</v>
+      </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -3167,91 +3294,76 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(A15&lt;&gt;"",NOT(B15&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(A14&lt;&gt;"",NOT(B14&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14 H16:H26" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H12 H15:H24" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C26" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H14" xr:uid="{FE08A284-AC88-054B-8B0F-F6F542F9B317}">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C24" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{FE08A284-AC88-054B-8B0F-F6F542F9B317}">
-      <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,7 +3373,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{0433615B-4834-1044-921F-5081D412C28C}">
+          <x14:cfRule type="expression" priority="11" id="{0433615B-4834-1044-921F-5081D412C28C}">
             <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3274,7 +3386,7 @@
           <xm:sqref>I4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{08EA44DE-C624-3143-BCB3-2642EC8BB83E}">
+          <x14:cfRule type="expression" priority="8" id="{08EA44DE-C624-3143-BCB3-2642EC8BB83E}">
             <xm:f>AND(I6&lt;&gt;"",ISERROR(MATCH(I6,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3287,7 +3399,7 @@
           <xm:sqref>I6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{DFA1F36B-71E0-A64A-9E9C-481829C516A1}">
+          <x14:cfRule type="expression" priority="6" id="{DFA1F36B-71E0-A64A-9E9C-481829C516A1}">
             <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3321,42 +3433,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
